--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-862463.4486291758</v>
+        <v>-865102.7959471981</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>59.16443822854887</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>73.1731823579899</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>84.24691516365851</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>100.1550566665004</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>270.5300956530383</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>91.44555130208221</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>326.1873707583577</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>123.893568876988</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>210.9145137628872</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>176.5019210274742</v>
+        <v>271.2903285220037</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>55.58911618638405</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>19.93833665882191</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>65.56423921895224</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>27.24739666248491</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>44.75138076689395</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>200.2034374015067</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>145.6718493954796</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>14.53306611597244</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>139.3687739767484</v>
+        <v>20.43112068613155</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>41.55695577161238</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261735</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265267</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261735</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.132293616579</v>
+        <v>1238.175560125521</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.132293616579</v>
+        <v>869.2130431851089</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>510.9473445783584</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>125.1590919801141</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>125.1590919801141</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4346,34 +4346,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926627</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926627</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926627</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.871465656513</v>
+        <v>2014.914732165454</v>
       </c>
       <c r="X2" t="n">
-        <v>2084.871465656513</v>
+        <v>2014.914732165454</v>
       </c>
       <c r="Y2" t="n">
-        <v>1694.732133680701</v>
+        <v>1624.775400189642</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507751</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009995</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.154053606941</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783103</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568937</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.2996089082458</v>
+        <v>746.0720891026921</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803389</v>
+        <v>746.0720891026921</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800313</v>
+        <v>595.9554496903563</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800313</v>
+        <v>448.0423561079632</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800313</v>
+        <v>301.1524086100528</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800313</v>
+        <v>301.1524086100528</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800313</v>
+        <v>152.413510473559</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1363.183397192641</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1108.498908986754</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W4" t="n">
-        <v>819.0817389497932</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="X4" t="n">
-        <v>591.0921880517759</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.2996089082458</v>
+        <v>927.7205539329318</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1214.090290083873</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C5" t="n">
-        <v>845.1277731434611</v>
+        <v>745.9401786091669</v>
       </c>
       <c r="D5" t="n">
-        <v>845.1277731434611</v>
+        <v>387.6744800024164</v>
       </c>
       <c r="E5" t="n">
-        <v>459.3395205452169</v>
+        <v>387.6744800024164</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>380.7289792532129</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4598,19 +4598,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>1977.695380320764</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X5" t="n">
-        <v>1604.229622059685</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y5" t="n">
-        <v>1214.090290083873</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560478</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>451.9049743189132</v>
+        <v>538.2860735999672</v>
       </c>
       <c r="C7" t="n">
-        <v>451.9049743189132</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="D7" t="n">
-        <v>451.9049743189132</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253778</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>922.9706091861135</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>633.553439149153</v>
+        <v>1168.716668471754</v>
       </c>
       <c r="X7" t="n">
-        <v>633.553439149153</v>
+        <v>940.727117573737</v>
       </c>
       <c r="Y7" t="n">
-        <v>633.553439149153</v>
+        <v>719.9345384302069</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2687.812828552609</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="W8" t="n">
-        <v>2335.044173282495</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="X8" t="n">
-        <v>2335.044173282495</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y8" t="n">
-        <v>1944.904841306683</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>825.3518203322459</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1781.313468435532</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1559.546853005058</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1270.443986130701</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.768990369206</v>
+        <v>1270.443986130701</v>
       </c>
       <c r="W10" t="n">
-        <v>825.3518203322459</v>
+        <v>981.0268160937408</v>
       </c>
       <c r="X10" t="n">
-        <v>825.3518203322459</v>
+        <v>753.0372651957234</v>
       </c>
       <c r="Y10" t="n">
-        <v>825.3518203322459</v>
+        <v>532.2446860521933</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5039,22 +5039,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5133,10 +5133,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>733.4550657171301</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D13" t="n">
-        <v>583.3384263047943</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>435.4253327224012</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>288.5353852244908</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>121.3392859393708</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>121.3392859393708</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>783.5579673960132</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C16" t="n">
-        <v>614.6217844681063</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2401.759668664206</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2401.759668664206</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U16" t="n">
-        <v>1958.090220510648</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V16" t="n">
-        <v>1703.405732304761</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.9885622678</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.999011369783</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y16" t="n">
-        <v>965.2064322262529</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1541.24257163705</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1251.82540160009</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5738,37 +5738,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>633.992644467967</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>483.8760050556313</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>483.8760050556313</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>483.8760050556313</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G22" t="n">
-        <v>316.6799057705112</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5981,19 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273905</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6227,7 +6227,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,37 +6449,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6610,7 +6610,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,19 +6780,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345485</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384029</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6950,34 +6950,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,16 +7008,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,31 +7090,31 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311324</v>
@@ -7345,34 +7345,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,67 +7543,67 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,34 +7819,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L3" t="n">
-        <v>186.4490126143858</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>114.3555089013353</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>-3.046648657076122e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>295.5186033921341</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>354.0242114430336</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>338.3745204149641</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>15.69705846816231</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6825818796756</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.01843965608063</v>
+        <v>81.26583631856646</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.62386594322771</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>85.98103698773741</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>106.4657939283484</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>271.9899322206186</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9259388694754591</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.4693302300322</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.267520046882033e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-7.409628594034053e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-7.531752999057062e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26317,10 +26317,10 @@
         <v>225786.4867126779</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="F2" t="n">
         <v>221965.3149147517</v>
@@ -26341,19 +26341,19 @@
         <v>221965.3149147516</v>
       </c>
       <c r="L2" t="n">
+        <v>225786.486712678</v>
+      </c>
+      <c r="M2" t="n">
+        <v>225786.486712678</v>
+      </c>
+      <c r="N2" t="n">
+        <v>225786.4867126782</v>
+      </c>
+      <c r="O2" t="n">
+        <v>225786.486712678</v>
+      </c>
+      <c r="P2" t="n">
         <v>225786.4867126781</v>
-      </c>
-      <c r="M2" t="n">
-        <v>225786.4867126781</v>
-      </c>
-      <c r="N2" t="n">
-        <v>225786.4867126781</v>
-      </c>
-      <c r="O2" t="n">
-        <v>225786.4867126781</v>
-      </c>
-      <c r="P2" t="n">
-        <v>225786.486712678</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67721.68800182237</v>
+        <v>67721.68800182252</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54516.86175496491</v>
+        <v>54516.86175496492</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756553</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
@@ -26442,22 +26442,22 @@
         <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985009</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985004</v>
       </c>
       <c r="N4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="O4" t="n">
-        <v>17328.05961985008</v>
+        <v>17328.05961985005</v>
       </c>
       <c r="P4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985006</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1076029.062786976</v>
+        <v>-1076389.145802693</v>
       </c>
       <c r="C6" t="n">
-        <v>-3877.559419269033</v>
+        <v>-3877.559419269324</v>
       </c>
       <c r="D6" t="n">
-        <v>-163298.8294171612</v>
+        <v>-163298.8294171611</v>
       </c>
       <c r="E6" t="n">
-        <v>-213906.8770732672</v>
+        <v>-213941.614998703</v>
       </c>
       <c r="F6" t="n">
-        <v>111505.5847340879</v>
+        <v>111470.8468086523</v>
       </c>
       <c r="G6" t="n">
-        <v>111505.5847340878</v>
+        <v>111470.8468086524</v>
       </c>
       <c r="H6" t="n">
-        <v>111505.5847340879</v>
+        <v>111470.8468086523</v>
       </c>
       <c r="I6" t="n">
-        <v>111505.584734088</v>
+        <v>111470.8468086521</v>
       </c>
       <c r="J6" t="n">
-        <v>-56099.59307589474</v>
+        <v>-56134.33100133029</v>
       </c>
       <c r="K6" t="n">
-        <v>111505.5847340879</v>
+        <v>111470.8468086522</v>
       </c>
       <c r="L6" t="n">
-        <v>37572.62323709021</v>
+        <v>37572.62323709007</v>
       </c>
       <c r="M6" t="n">
-        <v>20239.28330340082</v>
+        <v>20239.28330340069</v>
       </c>
       <c r="N6" t="n">
-        <v>105294.3112389126</v>
+        <v>105294.3112389127</v>
       </c>
       <c r="O6" t="n">
         <v>105294.3112389126</v>
       </c>
       <c r="P6" t="n">
-        <v>105294.3112389126</v>
+        <v>105294.3112389127</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203966</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>27.90615862922817</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>264.9940535537545</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>4.641538537400223</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>315.4304944396292</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>85.36033201459628</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27670,13 +27670,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>128.24407444684</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>75.60848457370378</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>151.2503374426607</v>
+        <v>56.46192994813117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>134.1799091450578</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>232.1993066650061</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30457,13 +30457,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,34 +32783,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33202,7 +33202,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043726</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,22 +33500,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L3" t="n">
-        <v>484.1293732522361</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>481.2868411833758</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191305</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,13 +36689,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36926,7 +36926,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
